--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sema3a-Nrp1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sema3a-Nrp1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.0272070954328</v>
+        <v>1.139906333333333</v>
       </c>
       <c r="H2">
-        <v>1.0272070954328</v>
+        <v>3.419719</v>
       </c>
       <c r="I2">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973528</v>
       </c>
       <c r="J2">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973527</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>97.0174500871979</v>
+        <v>101.7913436666667</v>
       </c>
       <c r="N2">
-        <v>97.0174500871979</v>
+        <v>305.374031</v>
       </c>
       <c r="O2">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="P2">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="Q2">
-        <v>99.65701311036722</v>
+        <v>116.0325973241432</v>
       </c>
       <c r="R2">
-        <v>99.65701311036722</v>
+        <v>1044.293375917289</v>
       </c>
       <c r="S2">
-        <v>0.05936147720002268</v>
+        <v>0.06111791621980266</v>
       </c>
       <c r="T2">
-        <v>0.05936147720002268</v>
+        <v>0.06111791621980264</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.0272070954328</v>
+        <v>1.139906333333333</v>
       </c>
       <c r="H3">
-        <v>1.0272070954328</v>
+        <v>3.419719</v>
       </c>
       <c r="I3">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973528</v>
       </c>
       <c r="J3">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973527</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.2179138591544</v>
+        <v>54.34621166666667</v>
       </c>
       <c r="N3">
-        <v>54.2179138591544</v>
+        <v>163.038635</v>
       </c>
       <c r="O3">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="P3">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="Q3">
-        <v>55.69302581568775</v>
+        <v>61.94959087150722</v>
       </c>
       <c r="R3">
-        <v>55.69302581568775</v>
+        <v>557.5463178435649</v>
       </c>
       <c r="S3">
-        <v>0.03317398524173008</v>
+        <v>0.03263074336049546</v>
       </c>
       <c r="T3">
-        <v>0.03317398524173008</v>
+        <v>0.03263074336049546</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.0272070954328</v>
+        <v>1.139906333333333</v>
       </c>
       <c r="H4">
-        <v>1.0272070954328</v>
+        <v>3.419719</v>
       </c>
       <c r="I4">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973528</v>
       </c>
       <c r="J4">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973527</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>121.748221160133</v>
+        <v>122.2542826666667</v>
       </c>
       <c r="N4">
-        <v>121.748221160133</v>
+        <v>366.762848</v>
       </c>
       <c r="O4">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="P4">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="Q4">
-        <v>125.0606366320104</v>
+        <v>139.3584310888569</v>
       </c>
       <c r="R4">
-        <v>125.0606366320104</v>
+        <v>1254.225879799712</v>
       </c>
       <c r="S4">
-        <v>0.07449334370306467</v>
+        <v>0.07340434595304608</v>
       </c>
       <c r="T4">
-        <v>0.07449334370306467</v>
+        <v>0.07340434595304605</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.0272070954328</v>
+        <v>1.139906333333333</v>
       </c>
       <c r="H5">
-        <v>1.0272070954328</v>
+        <v>3.419719</v>
       </c>
       <c r="I5">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973528</v>
       </c>
       <c r="J5">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973527</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.13358210476039</v>
+        <v>75.13712199999999</v>
       </c>
       <c r="N5">
-        <v>68.13358210476039</v>
+        <v>225.411366</v>
       </c>
       <c r="O5">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291165</v>
       </c>
       <c r="P5">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291166</v>
       </c>
       <c r="Q5">
-        <v>69.98729897526313</v>
+        <v>85.64928123623932</v>
       </c>
       <c r="R5">
-        <v>69.98729897526313</v>
+        <v>770.8435311261539</v>
       </c>
       <c r="S5">
-        <v>0.04168848054687543</v>
+        <v>0.04511409479406345</v>
       </c>
       <c r="T5">
-        <v>0.04168848054687543</v>
+        <v>0.04511409479406345</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.0272070954328</v>
+        <v>1.139906333333333</v>
       </c>
       <c r="H6">
-        <v>1.0272070954328</v>
+        <v>3.419719</v>
       </c>
       <c r="I6">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973528</v>
       </c>
       <c r="J6">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973527</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.643386272259139</v>
+        <v>9.304706666666666</v>
       </c>
       <c r="N6">
-        <v>8.643386272259139</v>
+        <v>27.91412</v>
       </c>
       <c r="O6">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="P6">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="Q6">
-        <v>8.878547707431048</v>
+        <v>10.60649405914222</v>
       </c>
       <c r="R6">
-        <v>8.878547707431048</v>
+        <v>95.45844653227998</v>
       </c>
       <c r="S6">
-        <v>0.005288576196040478</v>
+        <v>0.005586764669945094</v>
       </c>
       <c r="T6">
-        <v>0.005288576196040478</v>
+        <v>0.005586764669945092</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.77594925762357</v>
+        <v>1.902924</v>
       </c>
       <c r="H7">
-        <v>1.77594925762357</v>
+        <v>5.708772</v>
       </c>
       <c r="I7">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304457</v>
       </c>
       <c r="J7">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304456</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>97.0174500871979</v>
+        <v>101.7913436666667</v>
       </c>
       <c r="N7">
-        <v>97.0174500871979</v>
+        <v>305.374031</v>
       </c>
       <c r="O7">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="P7">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="Q7">
-        <v>172.2980684588909</v>
+        <v>193.701190855548</v>
       </c>
       <c r="R7">
-        <v>172.2980684588909</v>
+        <v>1743.310717699932</v>
       </c>
       <c r="S7">
-        <v>0.10263068843036</v>
+        <v>0.1020283388237324</v>
       </c>
       <c r="T7">
-        <v>0.10263068843036</v>
+        <v>0.1020283388237324</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.77594925762357</v>
+        <v>1.902924</v>
       </c>
       <c r="H8">
-        <v>1.77594925762357</v>
+        <v>5.708772</v>
       </c>
       <c r="I8">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304457</v>
       </c>
       <c r="J8">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304456</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>54.2179138591544</v>
+        <v>54.34621166666667</v>
       </c>
       <c r="N8">
-        <v>54.2179138591544</v>
+        <v>163.038635</v>
       </c>
       <c r="O8">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="P8">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="Q8">
-        <v>96.28826386806392</v>
+        <v>103.41671048958</v>
       </c>
       <c r="R8">
-        <v>96.28826386806392</v>
+        <v>930.7503944062199</v>
       </c>
       <c r="S8">
-        <v>0.05735485543705538</v>
+        <v>0.05447274294630126</v>
       </c>
       <c r="T8">
-        <v>0.05735485543705538</v>
+        <v>0.05447274294630126</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.77594925762357</v>
+        <v>1.902924</v>
       </c>
       <c r="H9">
-        <v>1.77594925762357</v>
+        <v>5.708772</v>
       </c>
       <c r="I9">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304457</v>
       </c>
       <c r="J9">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304456</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>121.748221160133</v>
+        <v>122.2542826666667</v>
       </c>
       <c r="N9">
-        <v>121.748221160133</v>
+        <v>366.762848</v>
       </c>
       <c r="O9">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="P9">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="Q9">
-        <v>216.2186629863284</v>
+        <v>232.640608589184</v>
       </c>
       <c r="R9">
-        <v>216.2186629863284</v>
+        <v>2093.765477302656</v>
       </c>
       <c r="S9">
-        <v>0.1287923331483743</v>
+        <v>0.1225389205531398</v>
       </c>
       <c r="T9">
-        <v>0.1287923331483743</v>
+        <v>0.1225389205531398</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.77594925762357</v>
+        <v>1.902924</v>
       </c>
       <c r="H10">
-        <v>1.77594925762357</v>
+        <v>5.708772</v>
       </c>
       <c r="I10">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304457</v>
       </c>
       <c r="J10">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304456</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.13358210476039</v>
+        <v>75.13712199999999</v>
       </c>
       <c r="N10">
-        <v>68.13358210476039</v>
+        <v>225.411366</v>
       </c>
       <c r="O10">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291165</v>
       </c>
       <c r="P10">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291166</v>
       </c>
       <c r="Q10">
-        <v>121.0017845581838</v>
+        <v>142.980232744728</v>
       </c>
       <c r="R10">
-        <v>121.0017845581838</v>
+        <v>1286.822094702552</v>
       </c>
       <c r="S10">
-        <v>0.07207565680558671</v>
+        <v>0.07531205960656276</v>
       </c>
       <c r="T10">
-        <v>0.07207565680558671</v>
+        <v>0.07531205960656276</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.77594925762357</v>
+        <v>1.902924</v>
       </c>
       <c r="H11">
-        <v>1.77594925762357</v>
+        <v>5.708772</v>
       </c>
       <c r="I11">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304457</v>
       </c>
       <c r="J11">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304456</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.643386272259139</v>
+        <v>9.304706666666666</v>
       </c>
       <c r="N11">
-        <v>8.643386272259139</v>
+        <v>27.91412</v>
       </c>
       <c r="O11">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="P11">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="Q11">
-        <v>15.35021543357237</v>
+        <v>17.70614962896</v>
       </c>
       <c r="R11">
-        <v>15.35021543357237</v>
+        <v>159.35534666064</v>
       </c>
       <c r="S11">
-        <v>0.009143475557172308</v>
+        <v>0.009326370300709442</v>
       </c>
       <c r="T11">
-        <v>0.009143475557172308</v>
+        <v>0.009326370300709439</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.99674530184207</v>
+        <v>2.189605333333333</v>
       </c>
       <c r="H12">
-        <v>1.99674530184207</v>
+        <v>6.568816</v>
       </c>
       <c r="I12">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722017</v>
       </c>
       <c r="J12">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722016</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>97.0174500871979</v>
+        <v>101.7913436666667</v>
       </c>
       <c r="N12">
-        <v>97.0174500871979</v>
+        <v>305.374031</v>
       </c>
       <c r="O12">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="P12">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="Q12">
-        <v>193.7191376583099</v>
+        <v>222.8828689796995</v>
       </c>
       <c r="R12">
-        <v>193.7191376583099</v>
+        <v>2005.945820817296</v>
       </c>
       <c r="S12">
-        <v>0.1153903153868008</v>
+        <v>0.1173992207989309</v>
       </c>
       <c r="T12">
-        <v>0.1153903153868008</v>
+        <v>0.1173992207989309</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.99674530184207</v>
+        <v>2.189605333333333</v>
       </c>
       <c r="H13">
-        <v>1.99674530184207</v>
+        <v>6.568816</v>
       </c>
       <c r="I13">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722017</v>
       </c>
       <c r="J13">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722016</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.2179138591544</v>
+        <v>54.34621166666667</v>
       </c>
       <c r="N13">
-        <v>54.2179138591544</v>
+        <v>163.038635</v>
       </c>
       <c r="O13">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="P13">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="Q13">
-        <v>108.2593647739446</v>
+        <v>118.9967549117955</v>
       </c>
       <c r="R13">
-        <v>108.2593647739446</v>
+        <v>1070.97079420616</v>
       </c>
       <c r="S13">
-        <v>0.06448553506816788</v>
+        <v>0.06267922863788411</v>
       </c>
       <c r="T13">
-        <v>0.06448553506816788</v>
+        <v>0.0626792286378841</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.99674530184207</v>
+        <v>2.189605333333333</v>
       </c>
       <c r="H14">
-        <v>1.99674530184207</v>
+        <v>6.568816</v>
       </c>
       <c r="I14">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722017</v>
       </c>
       <c r="J14">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722016</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>121.748221160133</v>
+        <v>122.2542826666667</v>
       </c>
       <c r="N14">
-        <v>121.748221160133</v>
+        <v>366.762848</v>
       </c>
       <c r="O14">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="P14">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="Q14">
-        <v>243.1001886091249</v>
+        <v>267.6886293497742</v>
       </c>
       <c r="R14">
-        <v>243.1001886091249</v>
+        <v>2409.197664147968</v>
       </c>
       <c r="S14">
-        <v>0.1448045235658439</v>
+        <v>0.1409997845337305</v>
       </c>
       <c r="T14">
-        <v>0.1448045235658439</v>
+        <v>0.1409997845337305</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.99674530184207</v>
+        <v>2.189605333333333</v>
       </c>
       <c r="H15">
-        <v>1.99674530184207</v>
+        <v>6.568816</v>
       </c>
       <c r="I15">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722017</v>
       </c>
       <c r="J15">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722016</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>68.13358210476039</v>
+        <v>75.13712199999999</v>
       </c>
       <c r="N15">
-        <v>68.13358210476039</v>
+        <v>225.411366</v>
       </c>
       <c r="O15">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291165</v>
       </c>
       <c r="P15">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291166</v>
       </c>
       <c r="Q15">
-        <v>136.0454099653512</v>
+        <v>164.5206430625173</v>
       </c>
       <c r="R15">
-        <v>136.0454099653512</v>
+        <v>1480.685787562656</v>
       </c>
       <c r="S15">
-        <v>0.0810365096220791</v>
+        <v>0.08665805222849034</v>
       </c>
       <c r="T15">
-        <v>0.0810365096220791</v>
+        <v>0.08665805222849034</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.99674530184207</v>
+        <v>2.189605333333333</v>
       </c>
       <c r="H16">
-        <v>1.99674530184207</v>
+        <v>6.568816</v>
       </c>
       <c r="I16">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722017</v>
       </c>
       <c r="J16">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722016</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.643386272259139</v>
+        <v>9.304706666666666</v>
       </c>
       <c r="N16">
-        <v>8.643386272259139</v>
+        <v>27.91412</v>
       </c>
       <c r="O16">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="P16">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="Q16">
-        <v>17.25864093113968</v>
+        <v>20.37363534243555</v>
       </c>
       <c r="R16">
-        <v>17.25864093113968</v>
+        <v>183.36271808192</v>
       </c>
       <c r="S16">
-        <v>0.01028024409082605</v>
+        <v>0.01073141657316582</v>
       </c>
       <c r="T16">
-        <v>0.01028024409082605</v>
+        <v>0.01073141657316582</v>
       </c>
     </row>
   </sheetData>
